--- a/backend/data/climatologias_AQ.xlsx
+++ b/backend/data/climatologias_AQ.xlsx
@@ -221,7 +221,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -232,7 +232,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="18.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1001" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="983" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -611,7 +611,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -998,7 +998,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I2" activeCellId="0" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1385,7 +1385,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1774,7 +1774,7 @@
   </sheetPr>
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -2162,7 +2162,7 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A15" activeCellId="0" sqref="A15"/>
     </sheetView>
   </sheetViews>
